--- a/measurements_file_updated.xlsx
+++ b/measurements_file_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4582ADAC-4BD0-4DDB-9809-880B195501B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE8FB4-7204-4510-8969-223C1803E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -132,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +158,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,12 +476,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -570,8 +559,11 @@
       <c r="L2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -609,7 +601,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -647,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -684,8 +676,11 @@
       <c r="L5">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -722,8 +717,11 @@
       <c r="L6">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="M6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -760,9 +758,11 @@
       <c r="L7">
         <v>14</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="M7" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -803,7 +803,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -834,9 +834,17 @@
       <c r="J9">
         <v>6.2</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>24.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -875,7 +883,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -912,9 +920,11 @@
       <c r="L11">
         <v>18</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+      <c r="M11" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -953,7 +963,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -990,9 +1000,11 @@
       <c r="L13">
         <v>22.5</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15">
+      <c r="M13" s="1">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1043,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1068,9 +1080,11 @@
       <c r="L15">
         <v>18.2</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15">
+      <c r="M15" s="1">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>

--- a/measurements_file_updated.xlsx
+++ b/measurements_file_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE8FB4-7204-4510-8969-223C1803E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C1377-27C7-4771-B807-2A3CB158AE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,6 +600,9 @@
       <c r="L3">
         <v>21.8</v>
       </c>
+      <c r="M3">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -638,6 +641,9 @@
       <c r="L4">
         <v>19</v>
       </c>
+      <c r="M4">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -881,7 +887,9 @@
       <c r="L10">
         <v>23.4</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -961,7 +969,9 @@
       <c r="L12">
         <v>23.4</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">

--- a/measurements_file_updated.xlsx
+++ b/measurements_file_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C1377-27C7-4771-B807-2A3CB158AE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B623A-7A78-4576-AC73-934B1ADB2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Ventra</t>
+  </si>
+  <si>
+    <t>Predicted chest</t>
+  </si>
+  <si>
+    <t>Predicted Shoulder</t>
+  </si>
+  <si>
+    <t>Predicted waist</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -473,15 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E2CE33-F495-4A9A-940E-E0A6662A5E14}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +538,17 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -560,10 +586,19 @@
         <v>18</v>
       </c>
       <c r="M2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="N2">
+        <v>39.31</v>
+      </c>
+      <c r="O2">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="P2">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -603,8 +638,17 @@
       <c r="M3">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>42.97</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -644,8 +688,17 @@
       <c r="M4">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="O4">
+        <v>36.43</v>
+      </c>
+      <c r="P4">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -685,8 +738,17 @@
       <c r="M5">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>41</v>
+      </c>
+      <c r="O5">
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -726,8 +788,17 @@
       <c r="M6">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -767,8 +838,17 @@
       <c r="M7" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>39</v>
+      </c>
+      <c r="P7">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -808,8 +888,17 @@
       <c r="M8" s="1">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -817,7 +906,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>31.5</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>41.1</v>
@@ -849,8 +938,17 @@
       <c r="M9" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="O9">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -890,8 +988,17 @@
       <c r="M10" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>41</v>
+      </c>
+      <c r="P10">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -931,8 +1038,17 @@
       <c r="M11" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -972,8 +1088,17 @@
       <c r="M12" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="O12">
+        <v>38</v>
+      </c>
+      <c r="P12">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1106,7 @@
         <v>34.5</v>
       </c>
       <c r="C13">
-        <v>27.7</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>42</v>
@@ -1013,8 +1138,17 @@
       <c r="M13" s="1">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>42.23</v>
+      </c>
+      <c r="O13">
+        <v>43</v>
+      </c>
+      <c r="P13">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1051,9 +1185,20 @@
       <c r="L14">
         <v>26.7</v>
       </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>36.75</v>
+      </c>
+      <c r="O14">
+        <v>46</v>
+      </c>
+      <c r="P14">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1093,8 +1238,17 @@
       <c r="M15" s="1">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>40</v>
+      </c>
+      <c r="O15">
+        <v>38</v>
+      </c>
+      <c r="P15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1134,8 +1288,14 @@
       <c r="M16" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>40</v>
+      </c>
+      <c r="P16">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1175,8 +1335,17 @@
       <c r="M17" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>43.5</v>
+      </c>
+      <c r="O17">
+        <v>41</v>
+      </c>
+      <c r="P17">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1215,6 +1384,15 @@
       </c>
       <c r="M18" s="1">
         <v>73</v>
+      </c>
+      <c r="N18">
+        <v>50.34</v>
+      </c>
+      <c r="O18">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <v>47.9</v>
       </c>
     </row>
   </sheetData>

--- a/measurements_file_updated.xlsx
+++ b/measurements_file_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B623A-7A78-4576-AC73-934B1ADB2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898BE2B-D392-4A70-BF35-FE62A005FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -84,18 +84,12 @@
     <t>Pranay</t>
   </si>
   <si>
-    <t>Pradham</t>
-  </si>
-  <si>
     <t>Chaitanya</t>
   </si>
   <si>
     <t>Tharun</t>
   </si>
   <si>
-    <t>Dhanush</t>
-  </si>
-  <si>
     <t>Pranav Reddy</t>
   </si>
   <si>
@@ -126,7 +120,10 @@
     <t>Predicted waist</t>
   </si>
   <si>
-    <t>ERROR</t>
+    <t>Predicted Right elbow</t>
+  </si>
+  <si>
+    <t>Predicted Left elbow</t>
   </si>
 </sst>
 </file>
@@ -485,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E2CE33-F495-4A9A-940E-E0A6662A5E14}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,9 +493,10 @@
     <col min="14" max="14" width="13.6640625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="20.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,16 +537,22 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -598,7 +602,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -648,7 +652,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -698,7 +702,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -748,7 +752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -798,7 +802,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -848,133 +852,133 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42.4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>41.1</v>
+      </c>
+      <c r="E8">
+        <v>11.3</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="K8" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>23</v>
+      <c r="G8">
+        <v>9.6</v>
+      </c>
+      <c r="H8">
+        <v>9.5</v>
+      </c>
+      <c r="I8">
+        <v>6.2</v>
+      </c>
+      <c r="J8">
+        <v>6.2</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>24.5</v>
       </c>
       <c r="M8" s="1">
-        <v>66.5</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="N8">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>41.1</v>
+        <v>43.1</v>
       </c>
       <c r="E9">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="H9">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="I9">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="J9">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="L9">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="M9" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N9">
-        <v>36.880000000000003</v>
+        <v>42</v>
       </c>
       <c r="O9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P9">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>38.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>43.1</v>
+        <v>45.2</v>
       </c>
       <c r="E10">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="I10">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="J10">
         <v>6.7</v>
@@ -989,409 +993,312 @@
         <v>71</v>
       </c>
       <c r="N10">
-        <v>42</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="O10">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P10">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="C11">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>35.4</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="G11">
-        <v>9.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="H11">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J11">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K11">
-        <v>17.600000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="M11" s="1">
-        <v>74</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>68.5</v>
+      </c>
+      <c r="N11">
+        <v>42.23</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
-        <v>37.200000000000003</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>45.2</v>
+        <v>46.5</v>
       </c>
       <c r="E12">
         <v>12.5</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H12">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="K12">
-        <v>23.4</v>
+        <v>27</v>
       </c>
       <c r="L12">
-        <v>23.4</v>
+        <v>26.7</v>
       </c>
       <c r="M12" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N12">
-        <v>34.659999999999997</v>
+        <v>36.75</v>
       </c>
       <c r="O12">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P12">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
-        <v>34.5</v>
+        <v>30.7</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>27.6</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="F13">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="G13">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="H13">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>22.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L13">
-        <v>22.5</v>
+        <v>18.2</v>
       </c>
       <c r="M13" s="1">
-        <v>68.5</v>
+        <v>74.5</v>
       </c>
       <c r="N13">
-        <v>42.23</v>
+        <v>40</v>
       </c>
       <c r="O13">
+        <v>38</v>
+      </c>
+      <c r="P13">
         <v>43</v>
       </c>
-      <c r="P13">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>35.5</v>
       </c>
       <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
         <v>42</v>
       </c>
-      <c r="D14">
-        <v>46.5</v>
-      </c>
       <c r="E14">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
       <c r="F14">
-        <v>12.8</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>11.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H14">
-        <v>11.9</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="J14">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="K14">
-        <v>27</v>
+        <v>22.5</v>
       </c>
       <c r="L14">
-        <v>26.7</v>
+        <v>23</v>
       </c>
       <c r="M14" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N14">
-        <v>36.75</v>
+        <v>49</v>
       </c>
       <c r="O14">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P14">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>30.7</v>
+        <v>38.6</v>
       </c>
       <c r="C15">
-        <v>27.6</v>
+        <v>38</v>
       </c>
       <c r="D15">
+        <v>43.5</v>
+      </c>
+      <c r="E15">
+        <v>11.8</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>9.4</v>
+      </c>
+      <c r="H15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I15">
+        <v>5.8</v>
+      </c>
+      <c r="J15">
+        <v>5.8</v>
+      </c>
+      <c r="K15">
+        <v>21.8</v>
+      </c>
+      <c r="L15">
+        <v>22.1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>69</v>
+      </c>
+      <c r="N15">
+        <v>43.5</v>
+      </c>
+      <c r="O15">
         <v>41</v>
       </c>
-      <c r="E15">
-        <v>9.5</v>
-      </c>
-      <c r="F15">
-        <v>9.5</v>
-      </c>
-      <c r="G15">
-        <v>9.5</v>
-      </c>
-      <c r="H15">
-        <v>9.5</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L15">
-        <v>18.2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="N15">
-        <v>40</v>
-      </c>
-      <c r="O15">
-        <v>38</v>
-      </c>
       <c r="P15">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16">
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>45.7</v>
       </c>
       <c r="E16">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>9.6999999999999993</v>
+        <v>11.5</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11.6</v>
       </c>
       <c r="I16">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="J16">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16" s="1">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="N16">
+        <v>50.34</v>
       </c>
       <c r="O16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P16">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>38.6</v>
-      </c>
-      <c r="C17">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>43.5</v>
-      </c>
-      <c r="E17">
-        <v>11.8</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>9.4</v>
-      </c>
-      <c r="H17">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I17">
-        <v>5.8</v>
-      </c>
-      <c r="J17">
-        <v>5.8</v>
-      </c>
-      <c r="K17">
-        <v>21.8</v>
-      </c>
-      <c r="L17">
-        <v>22.1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>69</v>
-      </c>
-      <c r="N17">
-        <v>43.5</v>
-      </c>
-      <c r="O17">
-        <v>41</v>
-      </c>
-      <c r="P17">
-        <v>43.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>43.5</v>
-      </c>
-      <c r="C18">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>45.7</v>
-      </c>
-      <c r="E18">
-        <v>13.1</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>11.5</v>
-      </c>
-      <c r="H18">
-        <v>11.6</v>
-      </c>
-      <c r="I18">
-        <v>6.9</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>26</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18" s="1">
-        <v>73</v>
-      </c>
-      <c r="N18">
-        <v>50.34</v>
-      </c>
-      <c r="O18">
-        <v>45</v>
-      </c>
-      <c r="P18">
         <v>47.9</v>
       </c>
     </row>
